--- a/biology/Médecine/Syndrome_IMAGe/Syndrome_IMAGe.xlsx
+++ b/biology/Médecine/Syndrome_IMAGe/Syndrome_IMAGe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome IMAGe est un syndrome malformatif rare associant retard de croissance intra-utérin, dysplasie métaphysaire, hypoplasie surrénalienne congénitale et anomalies génito-urinaires.
 Une hypotonie musculaire et un retard de développement sont signalés dans certains cas; le résultat cognitif semble normal dans la majorité des cas.
@@ -512,7 +524,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome IMAGe est causé par des mutations du gène CDKN1C. Ce gène fournit des instructions pour fabriquer une protéine qui aide à contrôler la croissance avant la naissance. Les mutations qui provoquent le syndrome IMAGe modifient la structure et la fonction de la protéine CDKN1C, qui inhibe la croissance normale dès les premiers stades de développement avant la naissance.
 Les gens héritent d'une copie de la plupart des gènes de leur mère et d'une copie de leur père. Pour la plupart des gènes, les deux copies sont entièrement activées (actives) dans les cellules. Cependant, le gène CDKN1C est plus actif lorsqu'il est hérité de la mère d'une personne. La copie de CDKN1C héritée du père d'une personne est active à des niveaux beaucoup plus faibles dans la plupart des tissus. Ce type de différence spécifique au parent dans l'activation des gènes est causé par un phénomène appelé empreinte génomique. Lorsque l'empreinte génomique réduit l'activité de la copie d'un gène hérité du père, ce gène est à empreinte paternelle.
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La combinaison d'un retard de croissance intra-utérine, de dysplasie métaphysaire, d'hypoplasie surrénalienne congénitale et d'anomalies génitales est communément connue sous l'acronyme IMAGe. Ce syndrome rare présente des signes et des symptômes qui affectent de nombreuses parties du corps.
 La plupart des individus atteints croissent lentement avant la naissance (retard de croissance intra-utérine) et sont petits à la naissance. Ils ont des anomalies squelettiques qui deviennent souvent apparentes dans la petite enfance, bien que ces anomalies soient généralement légères et peuvent être difficiles à reconnaître sur les radiographies. Les modifications osseuses les plus courantes sont la dysplasie métaphysaire et la dysplasie épiphysaire ; ce sont des malformations des extrémités des os longs des bras et des jambes. Certaines personnes touchées ont également une courbure latérale anormale de la colonne vertébrale (scoliose) ou un amincissement des os (ostéoporose).
@@ -579,7 +595,9 @@
           <t>Critères morphologiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les résultats rapportés chez les personnes ayant un diagnostic clinique et / ou moléculaire comprennent:
 Retard de croissance intra-utérin;
@@ -615,15 +633,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Clinique
-Moléculaire
-Pour un diagnostic suspect de syndrome IMAGe, l'analyse de séquence de CDKN1C doit être effectuée en premier. Les suppressions et les duplications dans CDKN1C n'ont pas été signalées comme provoquant le syndrome IMAGe.
+          <t>Moléculaire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour un diagnostic suspect de syndrome IMAGe, l'analyse de séquence de CDKN1C doit être effectuée en premier. Les suppressions et les duplications dans CDKN1C n'ont pas été signalées comme provoquant le syndrome IMAGe.
 Un panel multigène qui inclut CDKN1C et d'autres gènes d'intérêt peut également être envisagé.
-Différentiel
-En présence d'un nouveau-né que l'on soupçonne d'avoir cette maladie, les médecins vont aussi éliminer les maladies ressemblant au syndrome image. Ils vont discuter sur les maladies pouvant entraîner des insuffisances de la glande surrénale. Le tableau suivant résume les principales maladies que les médecins vont éliminer[2]:
-ils vont aussi discuter des nouveau-nés de petite taille avec atteinte du gène CDKN1C[2].
-Prénatal
-Lorsque l'allèle pathologique est connu chez l'un des parents, un diagnostic pré-natal est possible ou même pré-préimplantatoire.
 </t>
         </is>
       </c>
@@ -649,12 +666,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Troubles génétiquement apparentés (alléliques)</t>
+          <t>Diagnostic</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les troubles génétiquement liés sont les maladies dans lequel le gène CDKN1C est impliqué.
+          <t>Différentiel</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En présence d'un nouveau-né que l'on soupçonne d'avoir cette maladie, les médecins vont aussi éliminer les maladies ressemblant au syndrome image. Ils vont discuter sur les maladies pouvant entraîner des insuffisances de la glande surrénale. Le tableau suivant résume les principales maladies que les médecins vont éliminer:
+ils vont aussi discuter des nouveau-nés de petite taille avec atteinte du gène CDKN1C.
 </t>
         </is>
       </c>
@@ -680,10 +704,82 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Prénatal</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lorsque l'allèle pathologique est connu chez l'un des parents, un diagnostic pré-natal est possible ou même pré-préimplantatoire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Syndrome_IMAGe</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_IMAGe</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Troubles génétiquement apparentés (alléliques)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les troubles génétiquement liés sont les maladies dans lequel le gène CDKN1C est impliqué.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Syndrome_IMAGe</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_IMAGe</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Mode de transmission</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hérédité du syndrome IMAGe est une transmission autosomique dominante car une copie du gène CDKN1C modifié dans chaque cellule est suffisante pour provoquer le trouble. Cependant, parce que ce gène a une empreinte paternelle, le syndrome IMAGe ne se produit que lorsque la mutation est présente sur la copie héritée de la mère du gène. Lorsqu'une mutation affecte la copie paternellement héritée du gène CDKN1C, elle ne cause pas de problèmes de santé. Par conséquent, le syndrome IMAGe n'est transmis que des mères à leurs enfants.
 </t>
